--- a/utils/recordingExcel/SPR_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/SPR_RNP_TBOffset_Recording.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404F963-F3FA-4C0E-B4AE-6DD277C8A10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C72F065-026B-4930-90F3-5F1D8BC5C73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="172">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -329,223 +329,222 @@
     <t>string</t>
   </si>
   <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording1\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording2\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording3\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording4\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording5\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording6\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording7\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording10\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording11\continuous</t>
-  </si>
-  <si>
-    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording14\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous</t>
-  </si>
-  <si>
-    <t>hardware</t>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>SR_AP</t>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>depth</t>
   </si>
   <si>
     <t>double</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>SR_LFP</t>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>sort</t>
   </si>
   <si>
     <t>double</t>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>sitePos</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>exported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>AC1</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>AC1</t>
-  </si>
-  <si>
-    <t>depth</t>
+    <t>dz</t>
   </si>
   <si>
     <t>double</t>
   </si>
   <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>5460</t>
-  </si>
-  <si>
-    <t>3660</t>
-  </si>
-  <si>
-    <t>sort</t>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>F:\RNP\RNPDATA\20230505\Rat1\Record Node 121\experiment3\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>chNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>exported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>badChannel</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recTech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>dz</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>ks_ChSel</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ks_ID</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1010,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M22:M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,22 +1020,23 @@
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="51.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="84.875" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="7" width="6.875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.875" customWidth="1"/>
-    <col min="15" max="15" width="8" style="6" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.75" customWidth="1"/>
-    <col min="18" max="18" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="106.625" customWidth="1"/>
+    <col min="5" max="6" width="6.875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="9" width="6.875" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.875" customWidth="1"/>
+    <col min="16" max="16" width="8" style="6" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.75" customWidth="1"/>
+    <col min="19" max="19" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1049,47 +1049,50 @@
       <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>132</v>
+      <c r="E1" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>138</v>
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>168</v>
+      <c r="M1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1102,47 +1105,50 @@
       <c r="D2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>133</v>
+      <c r="E2" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>142</v>
+        <v>105</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="N2" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>169</v>
+      <c r="M2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -1153,35 +1159,38 @@
         <v>68</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="O3" s="31"/>
+        <v>171</v>
+      </c>
+      <c r="L3" s="28">
+        <v>385</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
       <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -1192,35 +1201,38 @@
         <v>69</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="20"/>
-      <c r="O4" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L4" s="18">
+        <v>385</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="20"/>
       <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -1231,35 +1243,38 @@
         <v>70</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="20"/>
-      <c r="O5" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L5" s="18">
+        <v>385</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="20"/>
       <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -1270,35 +1285,38 @@
         <v>71</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="20"/>
-      <c r="O6" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L6" s="18">
+        <v>385</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="20"/>
       <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1309,35 +1327,38 @@
         <v>72</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="20"/>
-      <c r="O7" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L7" s="18">
+        <v>385</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="20"/>
       <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -1348,35 +1369,38 @@
         <v>73</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="20"/>
-      <c r="O8" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L8" s="18">
+        <v>385</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="20"/>
       <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1387,35 +1411,38 @@
         <v>74</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="20"/>
-      <c r="O9" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L9" s="18">
+        <v>385</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="20"/>
       <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>1</v>
       </c>
@@ -1426,35 +1453,38 @@
         <v>75</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="20"/>
-      <c r="O10" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L10" s="18">
+        <v>385</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="20"/>
       <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>1</v>
       </c>
@@ -1465,35 +1495,38 @@
         <v>76</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>140</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="20"/>
-      <c r="O11" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L11" s="18">
+        <v>385</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="20"/>
       <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>1</v>
       </c>
@@ -1504,37 +1537,40 @@
         <v>77</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="34"/>
-      <c r="O12" s="34"/>
+        <v>122</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="18">
+        <v>385</v>
+      </c>
+      <c r="M12" s="37"/>
+      <c r="N12" s="34"/>
       <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>45</v>
@@ -1543,37 +1579,40 @@
         <v>78</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="O13" s="31"/>
+        <v>170</v>
+      </c>
+      <c r="L13" s="28">
+        <v>385</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
       <c r="P13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>46</v>
@@ -1582,37 +1621,40 @@
         <v>79</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="20"/>
-      <c r="O14" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L14" s="18">
+        <v>385</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="20"/>
       <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>47</v>
@@ -1621,37 +1663,40 @@
         <v>80</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>134</v>
+        <v>147</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="20"/>
-      <c r="O15" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L15" s="18">
+        <v>385</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="20"/>
       <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>48</v>
@@ -1660,37 +1705,40 @@
         <v>81</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>134</v>
+        <v>148</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="20"/>
-      <c r="O16" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L16" s="18">
+        <v>385</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="20"/>
       <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>49</v>
@@ -1699,37 +1747,40 @@
         <v>82</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>144</v>
-      </c>
       <c r="I17" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="20"/>
-      <c r="O17" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L17" s="18">
+        <v>385</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="20"/>
       <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>50</v>
@@ -1738,37 +1789,40 @@
         <v>83</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="20"/>
-      <c r="O18" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L18" s="18">
+        <v>385</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="20"/>
       <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>51</v>
@@ -1777,37 +1831,40 @@
         <v>84</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>134</v>
+        <v>151</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="20"/>
-      <c r="O19" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L19" s="18">
+        <v>385</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="20"/>
       <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>52</v>
@@ -1816,37 +1873,40 @@
         <v>85</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="20"/>
-      <c r="O20" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L20" s="18">
+        <v>385</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="20"/>
       <c r="P20" s="20"/>
-    </row>
-    <row r="21" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>53</v>
@@ -1855,37 +1915,40 @@
         <v>86</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="J21" s="18" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="20"/>
-      <c r="O21" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L21" s="18">
+        <v>385</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="20"/>
       <c r="P21" s="20"/>
-    </row>
-    <row r="22" spans="1:16" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>54</v>
@@ -1894,37 +1957,40 @@
         <v>87</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>134</v>
+        <v>154</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="34"/>
-      <c r="O22" s="34"/>
+        <v>122</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" s="18">
+        <v>385</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="34"/>
       <c r="P22" s="34"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>55</v>
@@ -1933,33 +1999,36 @@
         <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>140</v>
+        <v>155</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L23" s="28">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -1968,33 +2037,36 @@
         <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L24" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
@@ -2003,33 +2075,36 @@
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
+        <v>157</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L25" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -2038,33 +2113,36 @@
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>134</v>
+        <v>158</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L26" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -2073,33 +2151,36 @@
         <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>134</v>
+        <v>159</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L27" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -2108,33 +2189,36 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L28" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
@@ -2143,33 +2227,36 @@
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>134</v>
+        <v>161</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L29" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -2178,33 +2265,36 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>134</v>
+        <v>162</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L30" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -2213,33 +2303,36 @@
         <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
+        <v>163</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L31" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
@@ -2248,33 +2341,36 @@
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
+        <v>164</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="L32" s="18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -2283,28 +2379,31 @@
         <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>134</v>
+        <v>165</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>153</v>
+        <v>116</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>161</v>
+        <v>170</v>
+      </c>
+      <c r="L33" s="18">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
